--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\git\repository\seleniumAuto\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D553C064-F257-4938-9538-99A37D2B23C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269958ED-1D0F-4B0E-8249-91911B95DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7065" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22236" yWindow="5676" windowWidth="16416" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Principle</t>
   </si>
@@ -64,6 +64,51 @@
   </si>
   <si>
     <t>Simple Interest</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>51250</t>
+  </si>
+  <si>
+    <t>76500</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>75045.32</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -130,8 +175,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -139,14 +184,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -440,7 +478,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,158 +492,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>24000</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>40000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <v>70000</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
-        <v>51250</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>75000</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1">
-        <v>76500</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>75000</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1">
-        <v>75045.320000000007</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:H6">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",G2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\git\repository\seleniumAuto\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269958ED-1D0F-4B0E-8249-91911B95DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CB332-9924-482C-B7E1-80EB9D69D95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22236" yWindow="5676" windowWidth="16416" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Principle</t>
   </si>
@@ -66,56 +66,17 @@
     <t>Simple Interest</t>
   </si>
   <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>70000</t>
-  </si>
-  <si>
-    <t>51250</t>
-  </si>
-  <si>
-    <t>76500</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>75045.32</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>75000</t>
-  </si>
-  <si>
-    <t>20000</t>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +86,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,18 +138,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -478,7 +452,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,10 +472,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
@@ -516,14 +490,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
+      <c r="A2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -531,23 +505,25 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4">
+        <v>24000</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
+      <c r="A3" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -555,23 +531,25 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4">
+        <v>70000</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -579,23 +557,25 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="4">
+        <v>51250</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
+      <c r="A5" s="3">
+        <v>75000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -603,23 +583,25 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="4">
+        <v>76500</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+      <c r="A6" s="3">
+        <v>75000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -627,13 +609,15 @@
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="4">
+        <v>75045.320000000007</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\git\repository\seleniumAuto\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CB332-9924-482C-B7E1-80EB9D69D95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB767F0-9AE4-4BBA-BF96-BEA69B134842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>Principle</t>
   </si>
@@ -149,10 +149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -452,17 +452,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="7" max="7" customWidth="true" width="13.0"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -472,10 +472,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,7 +511,7 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -537,7 +537,7 @@
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -563,7 +563,7 @@
       <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -589,7 +589,7 @@
       <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -615,7 +615,7 @@
       <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>8</v>
       </c>
     </row>
